--- a/Präsentationen/Projektplan.xlsx
+++ b/Präsentationen/Projektplan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>Vorgangsname (Teilaufgabe / Arbeitspaket)</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>Alle</t>
+  </si>
+  <si>
+    <t>Auf die konkrete LV berechnet, wären dann 10 ECTS 180 Stunden, davon sind 15*6 = 90 Stunden Anwesenheit (gerechnet mit vollen Stunden, statt 45 min), dann bleiben nochmals 90 Stunden pro Person für das "Selbststudium" bzw. Projektarbeiten außerhalb der LVs, dividiert durch die 18 Wochen sind das 5 Stunden pro Woche.</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -576,6 +579,24 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -590,21 +611,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1051,17 +1057,17 @@
   <dimension ref="A1:W51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="7" ySplit="10" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="10" topLeftCell="H52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="1" customWidth="1"/>
-    <col min="3" max="6" width="4" style="1" customWidth="1"/>
+    <col min="3" max="6" width="4.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="23" width="3.6640625" style="1" customWidth="1"/>
     <col min="24" max="16384" width="11.5" style="1"/>
@@ -1076,7 +1082,7 @@
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="28" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1084,7 +1090,7 @@
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="29" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1092,58 +1098,58 @@
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="31" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="31">
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="37">
         <v>2016</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31">
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37">
         <v>2017</v>
       </c>
-      <c r="W9" s="31"/>
+      <c r="W9" s="37"/>
     </row>
     <row r="10" spans="1:23" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="30"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="3" t="s">
         <v>50</v>
       </c>
@@ -2634,12 +2640,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:4" ht="390" x14ac:dyDescent="0.15">
+      <c r="D7" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.4921259845" footer="0.4921259845"/>
 </worksheet>
